--- a/Econometrics/data/labor_data_dummy.xlsx
+++ b/Econometrics/data/labor_data_dummy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wkdrn\OneDrive\문서\R-Quant\Econometrics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498AD2EA-8F5C-4D8F-ADA2-29491FDF8A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263F511A-1943-439A-AD6A-7505D0AEDCD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13950" yWindow="645" windowWidth="23475" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="데이터" sheetId="1" r:id="rId1"/>
@@ -331,7 +331,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -378,13 +378,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -404,6 +413,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -720,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -816,6 +831,9 @@
       <c r="N2" s="3">
         <v>3028</v>
       </c>
+      <c r="O2" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -860,6 +878,9 @@
       <c r="N3" s="3">
         <v>3332</v>
       </c>
+      <c r="O3" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -904,6 +925,9 @@
       <c r="N4" s="3">
         <v>3263</v>
       </c>
+      <c r="O4" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -948,6 +972,9 @@
       <c r="N5" s="3">
         <v>3263</v>
       </c>
+      <c r="O5" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -992,6 +1019,9 @@
       <c r="N6" s="3">
         <v>3118</v>
       </c>
+      <c r="O6" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
@@ -1036,6 +1066,9 @@
       <c r="N7" s="3">
         <v>3355</v>
       </c>
+      <c r="O7" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -1080,6 +1113,9 @@
       <c r="N8" s="3">
         <v>3360</v>
       </c>
+      <c r="O8" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
@@ -1124,6 +1160,9 @@
       <c r="N9" s="3">
         <v>3366</v>
       </c>
+      <c r="O9" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
@@ -1168,6 +1207,9 @@
       <c r="N10" s="3">
         <v>3272</v>
       </c>
+      <c r="O10" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
@@ -1212,6 +1254,9 @@
       <c r="N11" s="3">
         <v>3526</v>
       </c>
+      <c r="O11" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
@@ -1256,6 +1301,9 @@
       <c r="N12" s="3">
         <v>3496</v>
       </c>
+      <c r="O12" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
@@ -1300,6 +1348,9 @@
       <c r="N13" s="3">
         <v>3455</v>
       </c>
+      <c r="O13" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
@@ -1344,6 +1395,9 @@
       <c r="N14" s="3">
         <v>3272</v>
       </c>
+      <c r="O14" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
@@ -1388,6 +1442,9 @@
       <c r="N15" s="3">
         <v>3487</v>
       </c>
+      <c r="O15" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
@@ -1432,8 +1489,11 @@
       <c r="N16" s="3">
         <v>3499</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
@@ -1476,8 +1536,11 @@
       <c r="N17" s="3">
         <v>3502</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>22</v>
       </c>
@@ -1520,8 +1583,11 @@
       <c r="N18" s="3">
         <v>3318</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>23</v>
       </c>
@@ -1564,8 +1630,11 @@
       <c r="N19" s="3">
         <v>3580</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
@@ -1608,8 +1677,11 @@
       <c r="N20" s="3">
         <v>3609</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>25</v>
       </c>
@@ -1652,8 +1724,11 @@
       <c r="N21" s="3">
         <v>3624</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>26</v>
       </c>
@@ -1696,8 +1771,11 @@
       <c r="N22" s="3">
         <v>3332</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
@@ -1740,8 +1818,11 @@
       <c r="N23" s="3">
         <v>3561</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>28</v>
       </c>
@@ -1784,8 +1865,11 @@
       <c r="N24" s="3">
         <v>3540</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
@@ -1828,8 +1912,11 @@
       <c r="N25" s="3">
         <v>3500</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>30</v>
       </c>
@@ -1872,8 +1959,11 @@
       <c r="N26" s="3">
         <v>3309</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>31</v>
       </c>
@@ -1916,8 +2006,11 @@
       <c r="N27" s="3">
         <v>3596</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O27" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>32</v>
       </c>
@@ -1960,8 +2053,11 @@
       <c r="N28" s="3">
         <v>3591</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O28" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>33</v>
       </c>
@@ -2004,8 +2100,11 @@
       <c r="N29" s="3">
         <v>3638</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>34</v>
       </c>
@@ -2048,8 +2147,11 @@
       <c r="N30" s="3">
         <v>3455</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O30" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>35</v>
       </c>
@@ -2092,8 +2194,11 @@
       <c r="N31" s="3">
         <v>3639</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O31" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>36</v>
       </c>
@@ -2136,8 +2241,11 @@
       <c r="N32" s="3">
         <v>3876</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O32" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>37</v>
       </c>
@@ -2180,8 +2288,11 @@
       <c r="N33" s="3">
         <v>3903</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O33" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>38</v>
       </c>
@@ -2224,8 +2335,11 @@
       <c r="N34" s="3">
         <v>3626</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O34" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>39</v>
       </c>
@@ -2268,8 +2382,11 @@
       <c r="N35" s="3">
         <v>4021</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O35" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>40</v>
       </c>
@@ -2312,8 +2429,11 @@
       <c r="N36" s="3">
         <v>4055</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O36" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>41</v>
       </c>
@@ -2356,8 +2476,11 @@
       <c r="N37" s="3">
         <v>3998</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O37" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>42</v>
       </c>
@@ -2400,8 +2523,11 @@
       <c r="N38" s="3">
         <v>3812</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O38" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>43</v>
       </c>
@@ -2444,8 +2570,11 @@
       <c r="N39" s="3">
         <v>4167</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O39" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>44</v>
       </c>
@@ -2488,8 +2617,11 @@
       <c r="N40" s="3">
         <v>4167</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O40" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>45</v>
       </c>
@@ -2532,8 +2664,11 @@
       <c r="N41" s="3">
         <v>4036</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O41" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>46</v>
       </c>
@@ -2576,8 +2711,11 @@
       <c r="N42" s="3">
         <v>3822</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O42" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>47</v>
       </c>
@@ -2620,8 +2758,11 @@
       <c r="N43" s="3">
         <v>4016</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O43" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>48</v>
       </c>
@@ -2664,8 +2805,11 @@
       <c r="N44" s="3">
         <v>3970</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O44" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
